--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H2">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I2">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J2">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.44378936923853</v>
+        <v>0.919382</v>
       </c>
       <c r="N2">
-        <v>2.44378936923853</v>
+        <v>2.758146</v>
       </c>
       <c r="O2">
-        <v>0.01705382400208084</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P2">
-        <v>0.01705382400208084</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q2">
-        <v>92.36125423102928</v>
+        <v>50.81169338725334</v>
       </c>
       <c r="R2">
-        <v>92.36125423102928</v>
+        <v>457.30524048528</v>
       </c>
       <c r="S2">
-        <v>0.0001990700843591538</v>
+        <v>9.168275275493036E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001990700843591538</v>
+        <v>9.319557618049088E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H3">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I3">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J3">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.2201576610693</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N3">
-        <v>51.2201576610693</v>
+        <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.3574365144173148</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P3">
-        <v>0.3574365144173148</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q3">
-        <v>1935.82886603746</v>
+        <v>139.8887749241156</v>
       </c>
       <c r="R3">
-        <v>1935.82886603746</v>
+        <v>1258.99897431704</v>
       </c>
       <c r="S3">
-        <v>0.004172373132818464</v>
+        <v>0.0002524101660381816</v>
       </c>
       <c r="T3">
-        <v>0.004172373132818464</v>
+        <v>0.0002565750934706386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H4">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I4">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J4">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.4103574859068</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N4">
-        <v>89.4103574859068</v>
+        <v>195.090483</v>
       </c>
       <c r="O4">
-        <v>0.6239443217657096</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P4">
-        <v>0.6239443217657096</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q4">
-        <v>3379.199886288158</v>
+        <v>3594.036648156827</v>
       </c>
       <c r="R4">
-        <v>3379.199886288158</v>
+        <v>32346.32983341144</v>
       </c>
       <c r="S4">
-        <v>0.007283331219681834</v>
+        <v>0.006484947685049647</v>
       </c>
       <c r="T4">
-        <v>0.007283331219681834</v>
+        <v>0.006591953424697337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H5">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I5">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J5">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.224311028331199</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N5">
-        <v>0.224311028331199</v>
+        <v>274.453155</v>
       </c>
       <c r="O5">
-        <v>0.00156533981489493</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P5">
-        <v>0.00156533981489493</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q5">
-        <v>8.477673311500237</v>
+        <v>5056.088242255601</v>
       </c>
       <c r="R5">
-        <v>8.477673311500237</v>
+        <v>45504.79418030041</v>
       </c>
       <c r="S5">
-        <v>1.827228479453371E-05</v>
+        <v>0.009123019866488424</v>
       </c>
       <c r="T5">
-        <v>1.827228479453371E-05</v>
+        <v>0.009273555466164074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3052.68149079779</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H6">
-        <v>3052.68149079779</v>
+        <v>165.80168</v>
       </c>
       <c r="I6">
-        <v>0.9428436200258625</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J6">
-        <v>0.9428436200258625</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44378936923853</v>
+        <v>0.27872</v>
       </c>
       <c r="N6">
-        <v>2.44378936923853</v>
+        <v>0.55744</v>
       </c>
       <c r="O6">
-        <v>0.01705382400208084</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P6">
-        <v>0.01705382400208084</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q6">
-        <v>7460.110574882868</v>
+        <v>15.40408141653333</v>
       </c>
       <c r="R6">
-        <v>7460.110574882868</v>
+        <v>92.42448849920001</v>
       </c>
       <c r="S6">
-        <v>0.01607908915740584</v>
+        <v>2.779455857070748E-05</v>
       </c>
       <c r="T6">
-        <v>0.01607908915740584</v>
+        <v>1.883545758130746E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H7">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J7">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>51.2201576610693</v>
+        <v>0.919382</v>
       </c>
       <c r="N7">
-        <v>51.2201576610693</v>
+        <v>2.758146</v>
       </c>
       <c r="O7">
-        <v>0.3574365144173148</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P7">
-        <v>0.3574365144173148</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q7">
-        <v>156358.8272476909</v>
+        <v>2970.67961478101</v>
       </c>
       <c r="R7">
-        <v>156358.8272476909</v>
+        <v>26736.11653302909</v>
       </c>
       <c r="S7">
-        <v>0.3370067371826475</v>
+        <v>0.005360185155813043</v>
       </c>
       <c r="T7">
-        <v>0.3370067371826475</v>
+        <v>0.005448631602122648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H8">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I8">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J8">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.4103574859068</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N8">
-        <v>89.4103574859068</v>
+        <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.6239443217657096</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P8">
-        <v>0.6239443217657096</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q8">
-        <v>272941.3433828413</v>
+        <v>8178.525538139374</v>
       </c>
       <c r="R8">
-        <v>272941.3433828413</v>
+        <v>73606.72984325438</v>
       </c>
       <c r="S8">
-        <v>0.5882819230281632</v>
+        <v>0.01475703100659147</v>
       </c>
       <c r="T8">
-        <v>0.5882819230281632</v>
+        <v>0.01500053135455952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H9">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I9">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J9">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.224311028331199</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N9">
-        <v>0.224311028331199</v>
+        <v>195.090483</v>
       </c>
       <c r="O9">
-        <v>0.00156533981489493</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P9">
-        <v>0.00156533981489493</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q9">
-        <v>684.7501243684699</v>
+        <v>210123.510824257</v>
       </c>
       <c r="R9">
-        <v>684.7501243684699</v>
+        <v>1891111.597418313</v>
       </c>
       <c r="S9">
-        <v>0.001475870657646149</v>
+        <v>0.3791391431117123</v>
       </c>
       <c r="T9">
-        <v>0.001475870657646149</v>
+        <v>0.3853951788437491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88005201614717</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H10">
-        <v>1.88005201614717</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I10">
-        <v>0.0005806681942038663</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J10">
-        <v>0.0005806681942038663</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44378936923853</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N10">
-        <v>2.44378936923853</v>
+        <v>274.453155</v>
       </c>
       <c r="O10">
-        <v>0.01705382400208084</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P10">
-        <v>0.01705382400208084</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q10">
-        <v>4.59445113067592</v>
+        <v>295601.608026128</v>
       </c>
       <c r="R10">
-        <v>4.59445113067592</v>
+        <v>2660414.472235152</v>
       </c>
       <c r="S10">
-        <v>9.902613187558834E-06</v>
+        <v>0.5333726812855651</v>
       </c>
       <c r="T10">
-        <v>9.902613187558834E-06</v>
+        <v>0.5421736679767009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88005201614717</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H11">
-        <v>1.88005201614717</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I11">
-        <v>0.0005806681942038663</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J11">
-        <v>0.0005806681942038663</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.2201576610693</v>
+        <v>0.27872</v>
       </c>
       <c r="N11">
-        <v>51.2201576610693</v>
+        <v>0.55744</v>
       </c>
       <c r="O11">
-        <v>0.3574365144173148</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P11">
-        <v>0.3574365144173148</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q11">
-        <v>96.29656067806926</v>
+        <v>900.5917259982934</v>
       </c>
       <c r="R11">
-        <v>96.29656067806926</v>
+        <v>5403.550355989761</v>
       </c>
       <c r="S11">
-        <v>0.0002075520153692264</v>
+        <v>0.00162499462315796</v>
       </c>
       <c r="T11">
-        <v>0.0002075520153692264</v>
+        <v>0.001101205375019034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H12">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I12">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J12">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>89.4103574859068</v>
+        <v>0.919382</v>
       </c>
       <c r="N12">
-        <v>89.4103574859068</v>
+        <v>2.758146</v>
       </c>
       <c r="O12">
-        <v>0.6239443217657096</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P12">
-        <v>0.6239443217657096</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q12">
-        <v>168.0961228558183</v>
+        <v>5.447144360398001</v>
       </c>
       <c r="R12">
-        <v>168.0961228558183</v>
+        <v>49.02429924358201</v>
       </c>
       <c r="S12">
-        <v>0.0003623046226034507</v>
+        <v>9.828627158882789E-06</v>
       </c>
       <c r="T12">
-        <v>0.0003623046226034507</v>
+        <v>9.990805725300873E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H13">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I13">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J13">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.224311028331199</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N13">
-        <v>0.224311028331199</v>
+        <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.00156533981489493</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P13">
-        <v>0.00156533981489493</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q13">
-        <v>0.4217164010581157</v>
+        <v>14.99643685565567</v>
       </c>
       <c r="R13">
-        <v>0.4217164010581157</v>
+        <v>134.967931700901</v>
       </c>
       <c r="S13">
-        <v>9.089430436304531E-07</v>
+        <v>2.705901970169167E-05</v>
       </c>
       <c r="T13">
-        <v>9.089430436304531E-07</v>
+        <v>2.75055106462518E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>145.383106593162</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H14">
-        <v>145.383106593162</v>
+        <v>17.774367</v>
       </c>
       <c r="I14">
-        <v>0.04490266505827957</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J14">
-        <v>0.04490266505827957</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.44378936923853</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N14">
-        <v>2.44378936923853</v>
+        <v>195.090483</v>
       </c>
       <c r="O14">
-        <v>0.01705382400208084</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P14">
-        <v>0.01705382400208084</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q14">
-        <v>355.2856903592414</v>
+        <v>385.2899825610291</v>
       </c>
       <c r="R14">
-        <v>355.2856903592414</v>
+        <v>3467.609843049262</v>
       </c>
       <c r="S14">
-        <v>0.0007657621471282848</v>
+        <v>0.0006952030891959169</v>
       </c>
       <c r="T14">
-        <v>0.0007657621471282848</v>
+        <v>0.0007066743800031299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>145.383106593162</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H15">
-        <v>145.383106593162</v>
+        <v>17.774367</v>
       </c>
       <c r="I15">
-        <v>0.04490266505827957</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J15">
-        <v>0.04490266505827957</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.2201576610693</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N15">
-        <v>51.2201576610693</v>
+        <v>274.453155</v>
       </c>
       <c r="O15">
-        <v>0.3574365144173148</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P15">
-        <v>0.3574365144173148</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q15">
-        <v>7446.545640957802</v>
+        <v>542.0256779197651</v>
       </c>
       <c r="R15">
-        <v>7446.545640957802</v>
+        <v>4878.231101277886</v>
       </c>
       <c r="S15">
-        <v>0.0160498520864796</v>
+        <v>0.0009780112195199486</v>
       </c>
       <c r="T15">
-        <v>0.0160498520864796</v>
+        <v>0.000994149023402274</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>145.383106593162</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H16">
-        <v>145.383106593162</v>
+        <v>17.774367</v>
       </c>
       <c r="I16">
-        <v>0.04490266505827957</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J16">
-        <v>0.04490266505827957</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.4103574859068</v>
+        <v>0.27872</v>
       </c>
       <c r="N16">
-        <v>89.4103574859068</v>
+        <v>0.55744</v>
       </c>
       <c r="O16">
-        <v>0.6239443217657096</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P16">
-        <v>0.6239443217657096</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q16">
-        <v>12998.75553290631</v>
+        <v>1.65135719008</v>
       </c>
       <c r="R16">
-        <v>12998.75553290631</v>
+        <v>9.908143140480002</v>
       </c>
       <c r="S16">
-        <v>0.02801676289526107</v>
+        <v>2.979648243846205E-06</v>
       </c>
       <c r="T16">
-        <v>0.02801676289526107</v>
+        <v>2.019209550006316E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>3.689559</v>
+      </c>
+      <c r="H17">
+        <v>11.068677</v>
+      </c>
+      <c r="I17">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J17">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.919382</v>
+      </c>
+      <c r="N17">
+        <v>2.758146</v>
+      </c>
+      <c r="O17">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P17">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q17">
+        <v>3.392114132538</v>
+      </c>
+      <c r="R17">
+        <v>30.529027192842</v>
+      </c>
+      <c r="S17">
+        <v>6.120606116386665E-06</v>
+      </c>
+      <c r="T17">
+        <v>6.221599989642731E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>3.689559</v>
+      </c>
+      <c r="H18">
+        <v>11.068677</v>
+      </c>
+      <c r="I18">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J18">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N18">
+        <v>7.593403</v>
+      </c>
+      <c r="O18">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P18">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q18">
+        <v>9.338769459759002</v>
+      </c>
+      <c r="R18">
+        <v>84.04892513783101</v>
+      </c>
+      <c r="S18">
+        <v>1.685053251205297E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.712857695936077E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>3.689559</v>
+      </c>
+      <c r="H19">
+        <v>11.068677</v>
+      </c>
+      <c r="I19">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J19">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N19">
+        <v>195.090483</v>
+      </c>
+      <c r="O19">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P19">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q19">
+        <v>239.932615788999</v>
+      </c>
+      <c r="R19">
+        <v>2159.393542100991</v>
+      </c>
+      <c r="S19">
+        <v>0.0004329255969403463</v>
+      </c>
+      <c r="T19">
+        <v>0.0004400691431897352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>3.689559</v>
+      </c>
+      <c r="H20">
+        <v>11.068677</v>
+      </c>
+      <c r="I20">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J20">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N20">
+        <v>274.453155</v>
+      </c>
+      <c r="O20">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P20">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q20">
+        <v>337.5370360362151</v>
+      </c>
+      <c r="R20">
+        <v>3037.833324325936</v>
+      </c>
+      <c r="S20">
+        <v>0.0006090394269029332</v>
+      </c>
+      <c r="T20">
+        <v>0.0006190889627689814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>3.689559</v>
+      </c>
+      <c r="H21">
+        <v>11.068677</v>
+      </c>
+      <c r="I21">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J21">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.27872</v>
+      </c>
+      <c r="N21">
+        <v>0.55744</v>
+      </c>
+      <c r="O21">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P21">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q21">
+        <v>1.02835388448</v>
+      </c>
+      <c r="R21">
+        <v>6.170123306880001</v>
+      </c>
+      <c r="S21">
+        <v>1.855523968012525E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.257427524948442E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>162.5045395</v>
+      </c>
+      <c r="H22">
+        <v>325.009079</v>
+      </c>
+      <c r="I22">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J22">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.919382</v>
+      </c>
+      <c r="N22">
+        <v>2.758146</v>
+      </c>
+      <c r="O22">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P22">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q22">
+        <v>149.403748534589</v>
+      </c>
+      <c r="R22">
+        <v>896.4224912075341</v>
+      </c>
+      <c r="S22">
+        <v>0.0002695786348461424</v>
+      </c>
+      <c r="T22">
+        <v>0.0001826845685839594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>162.5045395</v>
+      </c>
+      <c r="H23">
+        <v>325.009079</v>
+      </c>
+      <c r="I23">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J23">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N23">
+        <v>7.593403</v>
+      </c>
+      <c r="O23">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P23">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q23">
+        <v>411.3208192509729</v>
+      </c>
+      <c r="R23">
+        <v>2467.924915505837</v>
+      </c>
+      <c r="S23">
+        <v>0.0007421721745609559</v>
+      </c>
+      <c r="T23">
+        <v>0.0005029456566618093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>162.5045395</v>
+      </c>
+      <c r="H24">
+        <v>325.009079</v>
+      </c>
+      <c r="I24">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J24">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N24">
+        <v>195.090483</v>
+      </c>
+      <c r="O24">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P24">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q24">
+        <v>10567.69636691586</v>
+      </c>
+      <c r="R24">
+        <v>63406.17820149517</v>
+      </c>
+      <c r="S24">
+        <v>0.0190679630732436</v>
+      </c>
+      <c r="T24">
+        <v>0.01292173101847809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>145.383106593162</v>
-      </c>
-      <c r="H17">
-        <v>145.383106593162</v>
-      </c>
-      <c r="I17">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="J17">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.224311028331199</v>
-      </c>
-      <c r="N17">
-        <v>0.224311028331199</v>
-      </c>
-      <c r="O17">
-        <v>0.00156533981489493</v>
-      </c>
-      <c r="P17">
-        <v>0.00156533981489493</v>
-      </c>
-      <c r="Q17">
-        <v>32.61103414189649</v>
-      </c>
-      <c r="R17">
-        <v>32.61103414189649</v>
-      </c>
-      <c r="S17">
-        <v>7.028792941061637E-05</v>
-      </c>
-      <c r="T17">
-        <v>7.028792941061637E-05</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>162.5045395</v>
+      </c>
+      <c r="H25">
+        <v>325.009079</v>
+      </c>
+      <c r="I25">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J25">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N25">
+        <v>274.453155</v>
+      </c>
+      <c r="O25">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P25">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q25">
+        <v>14866.62785586571</v>
+      </c>
+      <c r="R25">
+        <v>89199.76713519427</v>
+      </c>
+      <c r="S25">
+        <v>0.02682479711158029</v>
+      </c>
+      <c r="T25">
+        <v>0.01817828215681169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>162.5045395</v>
+      </c>
+      <c r="H26">
+        <v>325.009079</v>
+      </c>
+      <c r="I26">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J26">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.27872</v>
+      </c>
+      <c r="N26">
+        <v>0.55744</v>
+      </c>
+      <c r="O26">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P26">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q26">
+        <v>45.29326524944001</v>
+      </c>
+      <c r="R26">
+        <v>181.17306099776</v>
+      </c>
+      <c r="S26">
+        <v>8.172550376700524E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.692178945981913E-05</v>
       </c>
     </row>
   </sheetData>
